--- a/src/cypress/document/Template_Dosen.xlsx
+++ b/src/cypress/document/Template_Dosen.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gibra\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Pribadi\Project\Laravel\Sirepo-JTI-Fullstack\src\cypress\document\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A4A2BBF-0F54-41E4-A7EC-3696ED22B382}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A84A225-58FB-445E-857D-3563A194A7C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19095" yWindow="0" windowWidth="19410" windowHeight="20985" xr2:uid="{6330A468-C46E-4837-9FDC-8153514FB9C1}"/>
+    <workbookView xWindow="3240" yWindow="5535" windowWidth="28800" windowHeight="15345" xr2:uid="{6330A468-C46E-4837-9FDC-8153514FB9C1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
   <si>
-    <t>Username</t>
-  </si>
-  <si>
     <t>Email</t>
   </si>
   <si>
@@ -76,6 +73,9 @@
   </si>
   <si>
     <t>lecturer_3@gmail.com</t>
+  </si>
+  <si>
+    <t>Nip</t>
   </si>
 </sst>
 </file>
@@ -462,7 +462,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,60 +477,60 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
       </c>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
   </sheetData>
